--- a/task.xlsx
+++ b/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>- (view.php) public function render($view) - переписати щоб шляхи не були захардкоджені.</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>(contacts_selectcontact.html) row 32, 33 не можу прочитати...</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -99,12 +102,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +134,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,117 +440,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A27"/>
+  <dimension ref="A5:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="128.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
